--- a/结果/CHB-MIT数据集/SVM分类/样本熵/SVM_chb03_sampen.xlsx
+++ b/结果/CHB-MIT数据集/SVM分类/样本熵/SVM_chb03_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B596F363-9320-4665-B2DF-ED394344F259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4422B6A7-AFDA-4378-B9A1-F4BE65455FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1344" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
+    <workbookView xWindow="9096" yWindow="696" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,12 +49,16 @@
     <t>spe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>原始 CD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +69,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -93,8 +106,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD14EF01-403A-4DFC-9B7B-B8B6CEBFB1E2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +444,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>65.625</v>
+      </c>
+      <c r="B2">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="C2">
+        <v>58.333300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>59.375</v>
+      </c>
+      <c r="B4">
+        <v>71.111099999999993</v>
+      </c>
+      <c r="C4">
+        <v>49.019599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>68.75</v>
+      </c>
+      <c r="B6">
+        <v>69.230800000000002</v>
+      </c>
+      <c r="C6">
+        <v>68.181799999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B8">
+        <v>75.555599999999998</v>
+      </c>
+      <c r="C8">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>52.173900000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B13">
+        <v>77.2727</v>
+      </c>
+      <c r="C13">
+        <v>48.076900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65.625</v>
+      </c>
+      <c r="B15">
+        <v>67.346900000000005</v>
+      </c>
+      <c r="C15">
+        <v>63.829799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B17">
+        <v>69.387799999999999</v>
+      </c>
+      <c r="C17">
+        <v>57.446800000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B19">
+        <v>62.963000000000001</v>
+      </c>
+      <c r="C19">
+        <v>64.285700000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B21">
+        <v>81.818200000000004</v>
+      </c>
+      <c r="C21">
+        <v>61.538499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>52.173900000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B26">
+        <v>73.912999999999997</v>
+      </c>
+      <c r="C26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B28">
+        <v>75.555599999999998</v>
+      </c>
+      <c r="C28">
+        <v>64.7059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B30">
+        <v>83.333299999999994</v>
+      </c>
+      <c r="C30">
+        <v>59.259300000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>56.25</v>
+      </c>
+      <c r="B32">
+        <v>50.877200000000002</v>
+      </c>
+      <c r="C32">
+        <v>64.102599999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>65.347226666666671</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>72.352126666666663</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>59.052980000000012</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810C507-C82A-45BD-9B4D-1B00DFD3EF7E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,6 +651,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B2">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>26.087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>93.75</v>
+      </c>
+      <c r="C4">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>53.125</v>
+      </c>
+      <c r="B6">
+        <v>97.872299999999996</v>
+      </c>
+      <c r="C6">
+        <v>10.2041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>47.916699999999999</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>1.9608000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>47.916699999999999</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>39.583300000000001</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>3.3332999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>51.041699999999999</v>
+      </c>
+      <c r="B17">
+        <v>93.877600000000001</v>
+      </c>
+      <c r="C17">
+        <v>6.383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>53.125</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>43.75</v>
+      </c>
+      <c r="B21">
+        <v>1.8182</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>44.791699999999999</v>
+      </c>
+      <c r="B24">
+        <v>3.6364000000000001</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>97.7273</v>
+      </c>
+      <c r="C26">
+        <v>9.6153999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>47.916699999999999</v>
+      </c>
+      <c r="B28">
+        <v>93.333299999999994</v>
+      </c>
+      <c r="C28">
+        <v>7.8430999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>46.875</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>60.869599999999998</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B1D5B3-E0CB-4F55-A1B0-E92DE0517301}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +843,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B2">
+        <v>58.695700000000002</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B4">
+        <v>61.538499999999999</v>
+      </c>
+      <c r="C4">
+        <v>72.7273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B6">
+        <v>50.980400000000003</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B8">
+        <v>62.790700000000001</v>
+      </c>
+      <c r="C8">
+        <v>71.698099999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60.416699999999999</v>
+      </c>
+      <c r="B10">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B13">
+        <v>45.097999999999999</v>
+      </c>
+      <c r="C13">
+        <v>71.111099999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B15">
+        <v>62.5</v>
+      </c>
+      <c r="C15">
+        <v>70.833299999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B17">
+        <v>69.047600000000003</v>
+      </c>
+      <c r="C17">
+        <v>64.814800000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>68.75</v>
+      </c>
+      <c r="B19">
+        <v>59.5745</v>
+      </c>
+      <c r="C19">
+        <v>77.551000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B21">
+        <v>51.923099999999998</v>
+      </c>
+      <c r="C21">
+        <v>86.363600000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>71.739099999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>62.5</v>
+      </c>
+      <c r="B26">
+        <v>61.363599999999998</v>
+      </c>
+      <c r="C26">
+        <v>63.461500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B28">
+        <v>56.25</v>
+      </c>
+      <c r="C28">
+        <v>72.916700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B30">
+        <v>57.777799999999999</v>
+      </c>
+      <c r="C30">
+        <v>80.392200000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B32">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="C32">
+        <v>76.744200000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>64.722220000000007</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>56.295319999999997</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>73.690193333333355</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C72B51-2F65-4A3E-B040-1720690970AF}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +1049,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>46.875</v>
+      </c>
+      <c r="B2">
+        <v>89.130399999999995</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41.666699999999999</v>
+      </c>
+      <c r="B4">
+        <v>92.682900000000004</v>
+      </c>
+      <c r="C4">
+        <v>3.6364000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>42.708300000000001</v>
+      </c>
+      <c r="B6">
+        <v>5.6604000000000001</v>
+      </c>
+      <c r="C6">
+        <v>88.372100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B8">
+        <v>85.106399999999994</v>
+      </c>
+      <c r="C8">
+        <v>26.5306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>44.791699999999999</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>41.666699999999999</v>
+      </c>
+      <c r="B13">
+        <v>5.6604000000000001</v>
+      </c>
+      <c r="C13">
+        <v>86.046499999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43.75</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B17">
+        <v>95.652199999999993</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>43.75</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>53.125</v>
+      </c>
+      <c r="B21">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="C21">
+        <v>13.7255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39.583300000000001</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B26">
+        <v>93.617000000000004</v>
+      </c>
+      <c r="C26">
+        <v>12.244899999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>46.875</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46.875</v>
+      </c>
+      <c r="B30">
+        <v>95.348799999999997</v>
+      </c>
+      <c r="C30">
+        <v>7.5472000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>43.75</v>
+      </c>
+      <c r="B32">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C32">
+        <v>3.6364000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44C781B-F187-40A4-BD80-7077415D3088}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,6 +1241,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="B2">
+        <v>86.792500000000004</v>
+      </c>
+      <c r="C2">
+        <v>23.255800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B4">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C4">
+        <v>12.7273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>95.555599999999998</v>
+      </c>
+      <c r="C6">
+        <v>9.8039000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51.041699999999999</v>
+      </c>
+      <c r="B8">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>15.2174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>46.875</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B13">
+        <v>86.956500000000005</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>56.25</v>
+      </c>
+      <c r="B15">
+        <v>74.074100000000001</v>
+      </c>
+      <c r="C15">
+        <v>33.333300000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>17.307700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>58.333300000000001</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>15.2174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>47.916699999999999</v>
+      </c>
+      <c r="B21">
+        <v>91.304299999999998</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B24">
+        <v>97.674400000000006</v>
+      </c>
+      <c r="C24">
+        <v>9.4339999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>51.041699999999999</v>
+      </c>
+      <c r="B26">
+        <v>95.454499999999996</v>
+      </c>
+      <c r="C26">
+        <v>13.461499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>53.125</v>
+      </c>
+      <c r="B28">
+        <v>95.652199999999993</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>41.666699999999999</v>
+      </c>
+      <c r="B30">
+        <v>42.372900000000001</v>
+      </c>
+      <c r="C30">
+        <v>40.540500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>54.166699999999999</v>
+      </c>
+      <c r="B32">
+        <v>95.833299999999994</v>
+      </c>
+      <c r="C32">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -547,15 +1416,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F05EFAA-3903-4D02-8A9E-646074610CBB}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,6 +1433,190 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>73.958299999999994</v>
+      </c>
+      <c r="B2">
+        <v>89.361699999999999</v>
+      </c>
+      <c r="C2">
+        <v>59.183700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>69.565200000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="B6">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="C6">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B8">
+        <v>72.340400000000002</v>
+      </c>
+      <c r="C8">
+        <v>61.224499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B10">
+        <v>60.416699999999999</v>
+      </c>
+      <c r="C10">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60.416699999999999</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>48.076900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>71.739099999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>68.085099999999997</v>
+      </c>
+      <c r="C17">
+        <v>81.6327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>82.608699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B21">
+        <v>55.101999999999997</v>
+      </c>
+      <c r="C21">
+        <v>74.468100000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="B24">
+        <v>76.595699999999994</v>
+      </c>
+      <c r="C24">
+        <v>69.387799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B26">
+        <v>65.217399999999998</v>
+      </c>
+      <c r="C26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>68.75</v>
+      </c>
+      <c r="B28">
+        <v>55.101999999999997</v>
+      </c>
+      <c r="C28">
+        <v>82.978700000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B30">
+        <v>61.224499999999999</v>
+      </c>
+      <c r="C30">
+        <v>65.957400000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B32">
+        <v>51.020400000000002</v>
+      </c>
+      <c r="C32">
+        <v>78.723399999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>67.638899999999992</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>64.403279999999995</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>71.33641333333334</v>
       </c>
     </row>
   </sheetData>
